--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_dml_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_dml_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>TestID</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/expectedresult/ps_dml_004.csv</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -686,7 +689,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>33</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_dml_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/mysql_ps_dml_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>TestID</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/expectedresult/ps_dml_004.csv</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -577,7 +574,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -648,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -689,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>33</v>
